--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_11-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_11-05.xlsx
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>6:0</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>انجرام40</t>
@@ -1190,17 +1196,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1208,7 +1214,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1216,7 +1222,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1226,7 +1232,7 @@
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1234,7 +1240,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1242,17 +1248,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1274,11 +1280,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1294,17 +1300,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1312,7 +1318,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1320,17 +1326,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1352,11 +1358,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1378,45 +1384,71 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="K29" s="11">
-        <v>1827.1199999999999</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="12">
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
         <v>48</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c t="s" r="F30" s="13">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
         <v>49</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c t="s" r="I30" s="15">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>30</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="26.25" customHeight="1">
+      <c r="K30" s="11">
+        <v>1845.1199999999999</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="12">
         <v>50</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c t="s" r="F31" s="13">
+        <v>51</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c t="s" r="I31" s="15">
+        <v>52</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="89">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1499,10 +1531,13 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:N31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
